--- a/Sheet2输出数据.xlsx
+++ b/Sheet2输出数据.xlsx
@@ -4777,7 +4777,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01468476628640151</v>
+        <v>0.07006707705302188</v>
       </c>
     </row>
     <row r="3">
@@ -4788,7 +4788,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3069409204799511</v>
+        <v>-1.306711758269828</v>
       </c>
     </row>
     <row r="4">
@@ -4799,7 +4799,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4825131495060494</v>
+        <v>-0.1811674401336857</v>
       </c>
     </row>
     <row r="5">
@@ -4810,7 +4810,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2056011025816761</v>
+        <v>0.227712132912122</v>
       </c>
     </row>
     <row r="6">
@@ -4821,7 +4821,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5598515785038681</v>
+        <v>-0.2473201989010314</v>
       </c>
     </row>
     <row r="7">
@@ -4832,7 +4832,7 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2239927026550501</v>
+        <v>0.1150826468999235</v>
       </c>
     </row>
     <row r="8">
@@ -4843,7 +4843,7 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5139455020542619</v>
+        <v>-1.311560582697668</v>
       </c>
     </row>
     <row r="9">
@@ -4854,7 +4854,7 @@
         <v>2014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5474916019310557</v>
+        <v>-4.975267314169156</v>
       </c>
     </row>
     <row r="10">
@@ -4865,7 +4865,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3318813362006215</v>
+        <v>0.1692996941297216</v>
       </c>
     </row>
     <row r="11">
@@ -4876,7 +4876,7 @@
         <v>2012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5064565785904089</v>
+        <v>0.08525509817778071</v>
       </c>
     </row>
     <row r="12">
@@ -4887,7 +4887,7 @@
         <v>2011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3534196454400118</v>
+        <v>-1.64484911921292</v>
       </c>
     </row>
     <row r="13">
@@ -4898,7 +4898,7 @@
         <v>2010</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2765446631795188</v>
+        <v>-0.1125399835699949</v>
       </c>
     </row>
     <row r="14">
@@ -4909,7 +4909,7 @@
         <v>2009</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2734127165126143</v>
+        <v>3.29776934289315</v>
       </c>
     </row>
     <row r="15">
@@ -4920,7 +4920,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2481767856528299</v>
+        <v>2.058405828196157</v>
       </c>
     </row>
     <row r="16">
@@ -4931,7 +4931,7 @@
         <v>2007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5702064358510377</v>
+        <v>-0.4770655065075941</v>
       </c>
     </row>
     <row r="17">
@@ -4942,7 +4942,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1394184381306684</v>
+        <v>0.1607475353179268</v>
       </c>
     </row>
     <row r="18">
@@ -4953,7 +4953,7 @@
         <v>2005</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2823189708770589</v>
+        <v>2.669149145123825</v>
       </c>
     </row>
     <row r="19">
@@ -4964,7 +4964,7 @@
         <v>2004</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0958234665128446</v>
+        <v>-0.01378799602588822</v>
       </c>
     </row>
     <row r="20">
@@ -4975,7 +4975,7 @@
         <v>2003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3474902293515539</v>
+        <v>-0.01925067501006546</v>
       </c>
     </row>
     <row r="21">
@@ -4986,7 +4986,7 @@
         <v>2002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4430787106079976</v>
+        <v>0.05923986759563224</v>
       </c>
     </row>
     <row r="22">
@@ -4997,7 +4997,7 @@
         <v>2001</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2864493222487904</v>
+        <v>-0.04789940372845474</v>
       </c>
     </row>
     <row r="23">
@@ -5008,7 +5008,7 @@
         <v>2000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1236856660620961</v>
+        <v>-0.5115470319007915</v>
       </c>
     </row>
     <row r="24">
@@ -5019,7 +5019,7 @@
         <v>1999</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04517405312051882</v>
+        <v>-0.0773392323788455</v>
       </c>
     </row>
     <row r="25">
@@ -5030,7 +5030,7 @@
         <v>1998</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3130090139190383</v>
+        <v>3.513662207216888</v>
       </c>
     </row>
     <row r="26">
@@ -5041,7 +5041,7 @@
         <v>1997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1609352876468147</v>
+        <v>-0.1527427673109027</v>
       </c>
     </row>
     <row r="27">
@@ -5052,7 +5052,7 @@
         <v>1996</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2608709007216054</v>
+        <v>1.477723474427899</v>
       </c>
     </row>
     <row r="28">
@@ -5063,7 +5063,7 @@
         <v>1995</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3303504186426274</v>
+        <v>0.1299651406244369</v>
       </c>
     </row>
     <row r="29">
@@ -5074,7 +5074,7 @@
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5602348321421771</v>
+        <v>-3.326764881916064</v>
       </c>
     </row>
     <row r="30">
@@ -5085,7 +5085,7 @@
         <v>1993</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01236240124375827</v>
+        <v>-0.2875690418271648</v>
       </c>
     </row>
     <row r="31">
@@ -5096,7 +5096,7 @@
         <v>1992</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3435197820499103</v>
+        <v>-0.1463689150914682</v>
       </c>
     </row>
     <row r="32">
@@ -5107,7 +5107,7 @@
         <v>1991</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2518927839053608</v>
+        <v>0.207709749704267</v>
       </c>
     </row>
     <row r="33">
@@ -5118,7 +5118,7 @@
         <v>1990</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3253544378349009</v>
+        <v>7.784498332907322</v>
       </c>
     </row>
     <row r="34">
@@ -5129,7 +5129,7 @@
         <v>1989</v>
       </c>
       <c r="C34" t="n">
-        <v>0.487895529604061</v>
+        <v>-0.2011297516111079</v>
       </c>
     </row>
     <row r="35">
@@ -5140,7 +5140,7 @@
         <v>1988</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02258464766991094</v>
+        <v>0.05812391228286744</v>
       </c>
     </row>
     <row r="36">
@@ -5151,7 +5151,7 @@
         <v>1987</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1932618119342622</v>
+        <v>-0.009492017367966727</v>
       </c>
     </row>
     <row r="37">
@@ -5162,7 +5162,7 @@
         <v>1986</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2131264041471986</v>
+        <v>0.2583014030074098</v>
       </c>
     </row>
     <row r="38">
@@ -5173,7 +5173,7 @@
         <v>1985</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4276756095413778</v>
+        <v>-2.266365164548278</v>
       </c>
     </row>
     <row r="39">
@@ -5184,7 +5184,7 @@
         <v>1984</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3027154043185968</v>
+        <v>-1.290166718542668</v>
       </c>
     </row>
     <row r="40">
@@ -5195,7 +5195,7 @@
         <v>1983</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1773030642547995</v>
+        <v>0.01997539965874738</v>
       </c>
     </row>
     <row r="41">
@@ -5206,7 +5206,7 @@
         <v>1982</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.02939259168272188</v>
+        <v>-0.02102645611741868</v>
       </c>
     </row>
     <row r="42">
@@ -5217,7 +5217,7 @@
         <v>1981</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2857280317755365</v>
+        <v>-1.280596855038936</v>
       </c>
     </row>
     <row r="43">
@@ -5228,7 +5228,7 @@
         <v>1980</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1389722756541504</v>
+        <v>-0.6035868297716144</v>
       </c>
     </row>
     <row r="44">
@@ -5239,7 +5239,7 @@
         <v>1979</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1683464681290651</v>
+        <v>1.969446516276792</v>
       </c>
     </row>
     <row r="45">
@@ -5250,7 +5250,7 @@
         <v>1978</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.152757713389094</v>
+        <v>-0.1375165060760377</v>
       </c>
     </row>
   </sheetData>
